--- a/Assignment_1.xlsx
+++ b/Assignment_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MTech\Semester 1\Mathematical Foundations for Data Science\Assignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakthi\Documents\GitHub\MDFS_Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD120F6-F9C2-486F-A67C-CEA9F278F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D508A-51BE-4268-8C3F-D841CA6039B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12084" yWindow="4548" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2252,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
